--- a/data/trans_camb/P1002-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,15</t>
+          <t>-2,04; 3,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,96</t>
+          <t>-2,23; 3,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,83</t>
+          <t>-1,14; 3,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,67</t>
+          <t>-2,8; 5,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,76</t>
+          <t>-3,81; 3,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,33</t>
+          <t>-2,5; 4,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,01</t>
+          <t>-1,35; 3,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,38</t>
+          <t>-2,08; 2,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,2</t>
+          <t>-0,76; 3,33</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,86; 134,62</t>
+          <t>-47,44; 127,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,53; 119,98</t>
+          <t>-47,86; 118,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 154,22</t>
+          <t>-27,53; 172,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 139,9</t>
+          <t>-37,31; 118,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 100,41</t>
+          <t>-47,68; 83,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 113,69</t>
+          <t>-31,38; 121,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 86,41</t>
+          <t>-26,6; 89,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,25; 67,59</t>
+          <t>-36,91; 69,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 88,9</t>
+          <t>-14,15; 96,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,4</t>
+          <t>-1,81; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,71</t>
+          <t>-2,84; 3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,48</t>
+          <t>-4,19; 1,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 6,64</t>
+          <t>-1,72; 6,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,97</t>
+          <t>-5,31; 1,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,94</t>
+          <t>-2,56; 4,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 4,5</t>
+          <t>-1,09; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,98</t>
+          <t>-3,32; 1,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,96</t>
+          <t>-2,42; 1,99</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 204,7</t>
+          <t>-35,05; 196,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 197,46</t>
+          <t>-53,72; 153,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,4; 84,94</t>
+          <t>-72,62; 64,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 125,93</t>
+          <t>-21,71; 124,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,64; 39,27</t>
+          <t>-60,67; 43,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 93,72</t>
+          <t>-28,85; 101,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 102,34</t>
+          <t>-15,86; 109,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 54,04</t>
+          <t>-48,86; 38,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 49,21</t>
+          <t>-36,72; 49,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 6,29</t>
+          <t>0,11; 6,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,88</t>
+          <t>-1,96; 3,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 4,26</t>
+          <t>-4,66; 4,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 13,38</t>
+          <t>-0,28; 13,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 12,7</t>
+          <t>-2,96; 12,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,72</t>
+          <t>-6,87; 5,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,38</t>
+          <t>1,8; 7,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,87</t>
+          <t>-0,89; 4,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,25</t>
+          <t>-5,65; 3,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 157,82</t>
+          <t>1,21; 166,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 105,39</t>
+          <t>-31,52; 96,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-68,78; 86,21</t>
+          <t>-68,63; 85,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 206,78</t>
+          <t>-4,24; 207,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 187,38</t>
+          <t>-25,92; 181,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 73,67</t>
+          <t>-48,51; 83,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,79; 145,68</t>
+          <t>22,23; 144,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 94,61</t>
+          <t>-11,6; 93,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,3; 55,06</t>
+          <t>-66,21; 61,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,93</t>
+          <t>-0,61; 3,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,5</t>
+          <t>-3,0; 0,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,47</t>
+          <t>-2,35; 1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,52</t>
+          <t>0,15; 6,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,48</t>
+          <t>-1,41; 4,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,58</t>
+          <t>-6,12; 0,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,22</t>
+          <t>0,45; 4,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,67</t>
+          <t>-1,65; 1,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,62</t>
+          <t>-3,19; 0,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 68,67</t>
+          <t>-8,67; 68,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 9,98</t>
+          <t>-40,36; 14,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 26,55</t>
+          <t>-30,87; 32,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,66; 94,43</t>
+          <t>0,39; 92,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 64,95</t>
+          <t>-15,16; 67,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,83; 7,85</t>
+          <t>-62,21; 6,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,89; 64,83</t>
+          <t>6,0; 65,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 25,94</t>
+          <t>-20,15; 25,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 9,09</t>
+          <t>-39,38; 10,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,24</t>
+          <t>-3,99; 3,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,59</t>
+          <t>-2,39; 4,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,17</t>
+          <t>-1,96; 5,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,44; 13,83</t>
+          <t>6,06; 14,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,15; 9,4</t>
+          <t>2,11; 9,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,43</t>
+          <t>-0,68; 7,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,87</t>
+          <t>3,06; 8,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,05</t>
+          <t>1,03; 6,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,73</t>
+          <t>0,31; 5,88</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 84,26</t>
+          <t>-48,94; 83,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 121,7</t>
+          <t>-26,18; 119,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 128,62</t>
+          <t>-26,77; 143,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>57,33; 190,95</t>
+          <t>53,15; 197,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,64; 122,18</t>
+          <t>17,93; 133,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 100,63</t>
+          <t>-6,49; 99,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>36,6; 138,12</t>
+          <t>33,45; 128,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,6; 93,47</t>
+          <t>11,05; 97,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,98; 87,58</t>
+          <t>4,45; 96,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,31</t>
+          <t>-2,45; 4,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,57</t>
+          <t>-2,69; 3,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 6,65</t>
+          <t>-2,31; 7,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,34</t>
+          <t>2,94; 8,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,75</t>
+          <t>-0,13; 4,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,68</t>
+          <t>2,3; 7,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,76</t>
+          <t>2,52; 6,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,02</t>
+          <t>-0,23; 3,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,25</t>
+          <t>1,51; 6,05</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-48,92; 212,68</t>
+          <t>-53,53; 237,64</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 186,48</t>
+          <t>-56,83; 189,42</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,34; 305,25</t>
+          <t>-58,95; 429,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>31,24; 104,77</t>
+          <t>26,43; 106,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 58,76</t>
+          <t>-2,07; 63,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,59; 95,46</t>
+          <t>22,97; 99,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,91; 94,86</t>
+          <t>29,76; 100,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 57,95</t>
+          <t>-2,65; 56,71</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>18,74; 90,26</t>
+          <t>16,59; 84,89</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,72</t>
+          <t>0,2; 2,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,21</t>
+          <t>-0,98; 1,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,41</t>
+          <t>-1,23; 1,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,93</t>
+          <t>3,99; 7,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,69</t>
+          <t>0,97; 3,93</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,9</t>
+          <t>-0,51; 3,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,43</t>
+          <t>2,65; 4,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,22</t>
+          <t>0,34; 2,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,85</t>
+          <t>-0,42; 1,82</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4,01; 58,88</t>
+          <t>3,96; 58,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 26,18</t>
+          <t>-16,48; 26,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 30,27</t>
+          <t>-20,68; 30,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>41,31; 88,93</t>
+          <t>43,94; 89,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>9,22; 47,83</t>
+          <t>10,33; 49,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 37,05</t>
+          <t>-5,52; 38,57</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>34,31; 70,16</t>
+          <t>36,67; 71,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>3,2; 33,95</t>
+          <t>5,12; 33,94</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 27,94</t>
+          <t>-5,74; 27,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1002-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
